--- a/ETH_Tx_Fees_London.xlsx
+++ b/ETH_Tx_Fees_London.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylanpatterson/Documents/GitHub/Unifi-Research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jreinberg13/Documents/GitHub/UnifiResearch/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79195F54-7608-CA43-92A9-AF5E9E4FF0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4FD1C2-C7D6-5A4A-8A97-C4A8349CB343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="500" windowWidth="26080" windowHeight="15440" xr2:uid="{5E6FB888-ADB5-5641-A977-176D55F328BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -424,7 +422,7 @@
   <dimension ref="A1:K2200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L409" sqref="L409"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
